--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\testExel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2A608D-3717-4C69-B640-218B49BC716F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86643655-48AF-4868-81D4-4EEE0E6CF15A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,15 +368,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>109</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\testExel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86643655-48AF-4868-81D4-4EEE0E6CF15A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,23 +352,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>19</v>
+      </c>
+      <c r="B1">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -352,7 +352,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -373,7 +373,7 @@
         <v>19</v>
       </c>
       <c r="B1">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
